--- a/CoreRulebook/Data/Statuss.xlsx
+++ b/CoreRulebook/Data/Statuss.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="99">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t xml:space="preserve">You are totally unable to act. 1HP lost per turn. When reaching -10HP, you are dead. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Until stabilised or healed</t>
   </si>
   <si>
     <t xml:space="preserve">Diseased</t>
@@ -333,6 +336,18 @@
   </si>
   <si>
     <t xml:space="preserve">3 turns, or otherwise specified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Critical But Stable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You were close to dying, but your condition is no longer degrading. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You are totally unable to act</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Until healed above 0HP</t>
   </si>
 </sst>
 </file>
@@ -538,10 +553,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
+      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -674,73 +689,75 @@
       <c r="C9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>11</v>
@@ -748,13 +765,13 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>15</v>
@@ -762,13 +779,13 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>23</v>
@@ -776,13 +793,13 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>31</v>
@@ -790,114 +807,128 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="0" t="s">
         <v>87</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
